--- a/Excel-XLSX/UN-VAN.xlsx
+++ b/Excel-XLSX/UN-VAN.xlsx
@@ -87,7 +87,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>4n5DCW</t>
+    <t>2ztI0p</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>2008</t>
@@ -102,52 +138,16 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>VUT</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
   </si>
 </sst>
 </file>
@@ -655,25 +655,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -693,16 +693,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -717,31 +717,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -755,22 +755,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -785,31 +785,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -823,22 +823,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -859,25 +859,25 @@
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-VAN.xlsx
+++ b/Excel-XLSX/UN-VAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2ztI0p</t>
+    <t>C2Se5T</t>
   </si>
   <si>
     <t>2021</t>
@@ -126,6 +126,24 @@
     <t>2</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -138,13 +156,10 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2010</t>
@@ -532,7 +547,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -672,8 +687,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -702,7 +717,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -717,10 +732,10 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>32</v>
@@ -740,8 +755,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -755,22 +770,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -808,8 +823,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -823,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -876,8 +891,76 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-VAN.xlsx
+++ b/Excel-XLSX/UN-VAN.xlsx
@@ -90,6 +90,54 @@
     <t>C2Se5T</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
@@ -102,30 +150,6 @@
     <t>BGD</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>VUT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -139,30 +163,6 @@
   </si>
   <si>
     <t>CHN</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
 </sst>
 </file>
@@ -670,25 +670,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -708,16 +708,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -738,25 +738,25 @@
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -770,22 +770,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -800,31 +800,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -874,25 +874,25 @@
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -942,25 +942,25 @@
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-VAN.xlsx
+++ b/Excel-XLSX/UN-VAN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>C2Se5T</t>
+    <t>Ea73Gd</t>
   </si>
   <si>
     <t>2008</t>
